--- a/medicine/Sexualité et sexologie/Rêves_interdits/Rêves_interdits.xlsx
+++ b/medicine/Sexualité et sexologie/Rêves_interdits/Rêves_interdits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%AAves_interdits</t>
+          <t>Rêves_interdits</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rêves interdits (Illicit Dreams) est un thriller érotique américain réalisé par Andrew Stevens, sorti en 1994.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%AAves_interdits</t>
+          <t>Rêves_interdits</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une femme, mariée à un homme violent, fait toujours le même rêve : elle fait l'amour avec un autre. Un jour, elle rencontre l'inconnu de ses songes.
-Résumé
-La belle Moira Davis (Shannon Tweed) a tout pour être heureuse : une maison splendide, des voitures de luxe et un mari riche. Pourtant, son époux médecin, Daniel Davis (Joe Cortese), est brutal et la trompe avec ses patientes, y compris avec Beverly Keen (Rochelle Swanson), sa secrétaire. Depuis la jeune femme est hantée par un rêve à la fois agréable et inquiétant : elle fait l'amour avec un étranger, sous les yeux d'un personnage angoissant, mais elle n'arrive pas à voir son visage. Son amie Melinda Ryan (Michelle Johnson) et une voyante (Stella Stevens) lui conseille de quitter Daniel pour rechercher l'homme de ses rêves, Moira est très effrayée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rêves_interdits</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%AAves_interdits</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La belle Moira Davis (Shannon Tweed) a tout pour être heureuse : une maison splendide, des voitures de luxe et un mari riche. Pourtant, son époux médecin, Daniel Davis (Joe Cortese), est brutal et la trompe avec ses patientes, y compris avec Beverly Keen (Rochelle Swanson), sa secrétaire. Depuis la jeune femme est hantée par un rêve à la fois agréable et inquiétant : elle fait l'amour avec un étranger, sous les yeux d'un personnage angoissant, mais elle n'arrive pas à voir son visage. Son amie Melinda Ryan (Michelle Johnson) et une voyante (Stella Stevens) lui conseille de quitter Daniel pour rechercher l'homme de ses rêves, Moira est très effrayée.
 Pendant ce temps, à travers la ville, Nick Richardson (Andrew Stevens), un entrepreneur indépendant, est obsédé de découvrir l'identité de la femme qu'il rêve chaque nuit. Moira et Nick se rapprochent et tombent rapidement amoureux.
 Moira décide de divorcer de Daniel, mais doit d'abord obtenir la preuve de ses relations adultères. Cependant, elle l'observe en train de menacer son employé, avec un couteau, parce qu'elle a volé certains de ses fichiers. Moira monte un complot visant à quitter définitivement Daniel, mais, malheureusement, il a des doutes et la fait suivre par un détective. Moira obtient les preuves accablantes dont elle a besoin, mais Daniel la rattrape avec l'intention de la tuer. Nick vient à la sauver in extremis et tue Daniel.
 Au dernier coup de feu, Moira se réveille en sursaut, au lit près de Daniel. C'était juste un rêve.
@@ -523,31 +572,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>R%C3%AAves_interdits</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rêves_interdits</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%AAves_interdits</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Illicit Dreams
@@ -579,31 +630,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>R%C3%AAves_interdits</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rêves_interdits</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%AAves_interdits</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Andrew Stevens : Nick Richardson
 Shannon Tweed : Moira Davis
@@ -619,44 +672,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R%C3%AAves_interdits</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%AAves_interdits</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu en décembre 1993 à Burbank, en Californie[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R%C3%AAves_interdits</t>
+          <t>Rêves_interdits</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,10 +693,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu en décembre 1993 à Burbank, en Californie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rêves_interdits</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%AAves_interdits</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
